--- a/Costco-Smoke tests.xlsx
+++ b/Costco-Smoke tests.xlsx
@@ -123,7 +123,7 @@
 </t>
   </si>
   <si>
-    <t>page should be refreshed with the log in page when its clicked</t>
+    <t>search results showing result page</t>
   </si>
 </sst>
 </file>
@@ -133,13 +133,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -153,10 +154,6 @@
       <name val="Averta"/>
     </font>
     <font/>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -275,22 +272,22 @@
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,16 +606,16 @@
       <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -644,7 +641,7 @@
       <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="14" t="s">

--- a/Costco-Smoke tests.xlsx
+++ b/Costco-Smoke tests.xlsx
@@ -31,7 +31,7 @@
     <t>test type</t>
   </si>
   <si>
-    <t>Sanity test</t>
+    <t>Smoke test</t>
   </si>
   <si>
     <t>Test scenario ID</t>
@@ -133,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -141,6 +141,9 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -263,13 +266,13 @@
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -281,10 +284,10 @@
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">

--- a/Costco-Smoke tests.xlsx
+++ b/Costco-Smoke tests.xlsx
@@ -58,21 +58,21 @@
     <t>Status</t>
   </si>
   <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Page is load</t>
+  </si>
+  <si>
     <t>TC001</t>
   </si>
   <si>
-    <t>Page is load</t>
-  </si>
-  <si>
-    <t>TS001</t>
-  </si>
-  <si>
-    <t>Verify app is loaded with a main search bar, headrSection, all the departments, and items.</t>
-  </si>
-  <si>
-    <t>1.When go to https://www.costco.com/
-2.And wait for a second
-3,Then verify that all the secstions are displayed.
+    <t>Verify the website is loaded with a main search bar, headrSection, all the departments, and items.</t>
+  </si>
+  <si>
+    <t>When go to https://www.costco.com/
+And wait for a second
+Then verify that all the secstions are displayed.
 .</t>
   </si>
   <si>
@@ -85,45 +85,44 @@
     <t>pass</t>
   </si>
   <si>
+    <t>TS002</t>
+  </si>
+  <si>
+    <t>Add item to shopping cart and check out</t>
+  </si>
+  <si>
     <t>TC002</t>
   </si>
   <si>
-    <t>Add item to shopping cart</t>
-  </si>
-  <si>
-    <t>TS002</t>
-  </si>
-  <si>
     <t>User should be able to check out an item</t>
   </si>
   <si>
-    <t>1. When at the home page
-2.And click an item from homepage
-         3. And click add to cart button at product page                    4. And verify the pop-up is displayed with added to cart check mark. 5. And click the view cart to verify the items is displayed at cart. And click "check out " button 6. Then verify that "".</t>
+    <t>When at the home page.  And click an item from homepage.
+         And click add to cart button at product page.                    And verify the pop-up is displayed with added to cart check mark. And click the view cart to verify the items is displayed at cart. And click "check out " button. Then verify that "".</t>
   </si>
   <si>
     <t>user can purchase an item</t>
   </si>
   <si>
+    <t>TS003</t>
+  </si>
+  <si>
+    <t>Search function</t>
+  </si>
+  <si>
     <t>TC003</t>
   </si>
   <si>
-    <t>Search function</t>
-  </si>
-  <si>
-    <t>TS003</t>
-  </si>
-  <si>
     <t>User should be able to search items from homepage</t>
   </si>
   <si>
-    <t xml:space="preserve">1. When at the home page
-2. And click the search bar
- 3.And enter "Apple Airpods" and click enter                                                                 4. Then verify that results are showed for the search
+    <t xml:space="preserve">When at the home page.
+And click the search bar.
+And enter "Apple Airpods" and click enter.                                                                 Then verify that results are showed for the search.
 </t>
   </si>
   <si>
-    <t>search results showing result page</t>
+    <t>search results showing in result page</t>
   </si>
 </sst>
 </file>
@@ -133,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -141,9 +140,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -156,7 +152,6 @@
       <color rgb="FF000000"/>
       <name val="Averta"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -244,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -266,13 +261,13 @@
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -284,10 +279,7 @@
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -612,19 +604,19 @@
       <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -644,13 +636,13 @@
       <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>22</v>
       </c>
     </row>
